--- a/ocms/src/test/resources/DownloadedFiles/Chat Menu Description.xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Chat Menu Description.xlsx
@@ -70,7 +70,7 @@
     <t xml:space="preserve">balance</t>
   </si>
   <si>
-    <t xml:space="preserve">06/11/2019 13:19:31</t>
+    <t xml:space="preserve">14/11/2019 15:42:19</t>
   </si>
   <si>
     <t xml:space="preserve">500</t>

--- a/ocms/src/test/resources/DownloadedFiles/Chat Menu Description.xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Chat Menu Description.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t xml:space="preserve">Menu Id</t>
   </si>
@@ -58,10 +58,7 @@
     <t xml:space="preserve">balance</t>
   </si>
   <si>
-    <t xml:space="preserve">QATETHERFI\Administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/08/2021 11:42:19</t>
+    <t xml:space="preserve">10/08/2021 23:50:39</t>
   </si>
   <si>
     <t xml:space="preserve">500</t>
@@ -243,95 +240,95 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
       <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
         <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
